--- a/excel/trick_202310.xlsx
+++ b/excel/trick_202310.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>10/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>10/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>10/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>10/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>10/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>10/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>10/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>10/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>10/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>10/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>10/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>10/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>10/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>10/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>10/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>10/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>10/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>10/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>10/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>10/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>10/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>10/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>10/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>10/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>10/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>10/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>10/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>10/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>10/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>10/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,17 +615,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>魏宏霖</t>
+          <t>陳智倫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henry Wei</t>
+          <t>Frank Chen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -774,6 +779,11 @@
         </is>
       </c>
       <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -782,17 +792,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>李侑萱</t>
+          <t>邱昉</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yolanda Lee</t>
+          <t>Yvonne Chiu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -807,7 +817,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -947,24 +957,29 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>葉雲旭</t>
+          <t>黃冠叡</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johnny Yeh</t>
+          <t>Ray Huang</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -979,7 +994,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1024,7 +1039,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1119,24 +1134,29 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>2980</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>潘梅寧</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amy Pan</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1226,7 +1246,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1291,24 +1311,29 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1462,6 +1487,11 @@
         </is>
       </c>
       <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1470,17 +1500,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>傅子峰</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gibson Fu</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1500,7 +1530,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1510,7 +1540,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1545,7 +1575,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1565,7 +1595,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>446</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1636,23 +1666,28 @@
       <c r="AH7" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1664</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>賴韋任</t>
+          <t>李子豪</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leo Lai</t>
+          <t>Howard Lee</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1806,6 +1841,11 @@
         </is>
       </c>
       <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1814,17 +1854,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>川中郁果</t>
+          <t>許少凱</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kawanaka Ikuka</t>
+          <t>Kent Hsu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1874,12 +1914,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1924,7 +1964,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1979,24 +2019,29 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1010</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>陳聿恩</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kitty Chen</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2150,6 +2195,11 @@
         </is>
       </c>
       <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2158,17 +2208,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>吳國彰</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Justin Wu</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2322,6 +2372,11 @@
         </is>
       </c>
       <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2330,17 +2385,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>葉美妙</t>
+          <t>李羚榕</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Karen Yeh</t>
+          <t>Alison Lee</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2400,7 +2455,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2496,6 +2551,11 @@
       <c r="AH12" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>580</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2572,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA380</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2527,7 +2587,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2567,14 +2627,14 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>950</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>0</t>
@@ -2602,14 +2662,14 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
           <t>1300</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="W13" t="inlineStr">
         <is>
           <t>0</t>
@@ -2667,24 +2727,29 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>2250</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2694,12 +2759,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2709,7 +2774,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2744,7 +2809,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2764,7 +2829,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2839,24 +2904,29 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2070</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>朱傑</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jason Chu</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2886,7 +2956,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3012,23 +3082,28 @@
       <c r="AH15" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>880</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3123,12 +3198,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>246</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -3184,23 +3259,28 @@
       <c r="AH16" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>1702</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>凃美君</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chun Tu</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3215,7 +3295,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3265,7 +3345,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3290,7 +3370,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -3355,24 +3435,29 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>4750</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>劉學仁</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jason Liu</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3526,6 +3611,11 @@
         </is>
       </c>
       <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3534,17 +3624,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>謝芳琴</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chin Hsieh</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3698,6 +3788,11 @@
         </is>
       </c>
       <c r="AH19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3706,17 +3801,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3731,7 +3826,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3871,24 +3966,29 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>魏毓瑩</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mina Wei</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3903,7 +4003,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>700</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4044,23 +4144,28 @@
       <c r="AH21" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>700</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4115,17 +4220,17 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4215,24 +4320,29 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>張榕珊</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sandy Chang</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4386,6 +4496,11 @@
         </is>
       </c>
       <c r="AH23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4394,17 +4509,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>林威宇</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Will Lin</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4494,17 +4609,17 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>410</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>410</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>850</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -4560,23 +4675,28 @@
       <c r="AH24" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>1670</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>葉思妤</t>
+          <t>楊于箴</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ivy Yeh</t>
+          <t>Sandy Yang</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4730,6 +4850,11 @@
         </is>
       </c>
       <c r="AH25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4738,17 +4863,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>林彥廷</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tim Lin</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4902,6 +5027,11 @@
         </is>
       </c>
       <c r="AH26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4910,17 +5040,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>陳楨紘</t>
+          <t>戴新華</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jane Chen</t>
+          <t>Dixie Tai</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5074,6 +5204,11 @@
         </is>
       </c>
       <c r="AH27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5082,17 +5217,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>潘梅寧</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Amy Pan</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA7</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5147,7 +5282,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5247,24 +5382,29 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>戴新華</t>
+          <t>蕭順仁</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dixie Tai</t>
+          <t>Allen Hsiao</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5289,7 +5429,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>315</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -5329,7 +5469,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -5344,17 +5484,17 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2890</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -5364,12 +5504,12 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>315</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -5379,7 +5519,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -5389,7 +5529,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -5419,24 +5559,29 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>7120</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5446,7 +5591,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5466,7 +5611,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5521,17 +5666,17 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>320</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -5571,7 +5716,7 @@
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
@@ -5591,24 +5736,29 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>3850</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>3120</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>董宇珊</t>
+          <t>賴韋任</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Joanne Tung</t>
+          <t>Leo Lai</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA82</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5723,7 +5873,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -5764,23 +5914,28 @@
       <c r="AH31" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>160</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>林子玲</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Missy Lin</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5934,6 +6089,11 @@
         </is>
       </c>
       <c r="AH32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5942,17 +6102,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>李侑萱</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Yolanda Lee</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA96</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6106,6 +6266,11 @@
         </is>
       </c>
       <c r="AH33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6114,17 +6279,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>葉雲旭</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Johnny Yeh</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA96</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6278,6 +6443,11 @@
         </is>
       </c>
       <c r="AH34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6286,17 +6456,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>凃美君</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Chun Tu</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA96</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6450,6 +6620,11 @@
         </is>
       </c>
       <c r="AH35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6458,22 +6633,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>川中郁果</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Kawanaka Ikuka</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -6493,7 +6668,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6523,12 +6698,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -6623,24 +6798,29 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>1970</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6665,7 +6845,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6795,24 +6975,29 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6827,7 +7012,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6967,24 +7152,29 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7138,6 +7328,11 @@
         </is>
       </c>
       <c r="AH39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7146,17 +7341,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7181,7 +7376,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -7311,24 +7506,29 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>李沐潔</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kayla Lee</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7482,6 +7682,11 @@
         </is>
       </c>
       <c r="AH41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7490,17 +7695,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7515,22 +7715,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>700</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>315</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,686</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -7555,17 +7755,17 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6,460</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,661</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -7585,27 +7785,27 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>921</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,350</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,956</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,631</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,980</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -7615,7 +7815,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>315</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -7625,7 +7825,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -7635,7 +7835,7 @@
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,400</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
@@ -7658,4992 +7858,9 @@
           <t>0</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>陳璜琪</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Vincent Chen</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>張維辛</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Darren Chang</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>謝昔祥</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Adonis Hsieh</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>江德蓉</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Leila Jiang</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>陳寶慧</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Bao Chen</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>1456</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>1702</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>林雅雪</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Cher Lin</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>1375</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>2700</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>6125</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>蕭順仁</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Allen Hsiao</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>2890</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>2980</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>7275</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>陳智倫</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Frank Chen</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>1340</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>1340</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>蔡明彬</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Jeff Tsai</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>2565</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>2565</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>王耀鋒</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Max Wang</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>胡美燕</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>2565</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH53" t="inlineStr">
-        <is>
-          <t>2565</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>陳竑廷</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Jeff Chen</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>李泰儀</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Tyron Lee</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH55" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>張雅惠</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Sofeya Chang</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>1670</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>1670</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>林華宸</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Wayne Lin</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>張軒瑜</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Mark Chang</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH58" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>江晏如</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Jessika Jiang</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>王縈嫻</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Ariel Wang</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>2800</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>黃承緯</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Eric Huang</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>郭家渝</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Zoe Kuo</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>880</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>880</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>郭亮均</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Joy Kuo</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>914</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>914</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>李漩靜</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Jamie Lee</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>黃秀菁</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>EVA Huang</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH65" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>李品于</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Spring Lee</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>王貞文</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Jane Wang</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>莊正忠</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Hugo Chuang</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>李俊賢</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Kiven Lee</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>黃榮昌</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Hothwang Huang</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>5,780</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>4,941</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>8,846</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2,746</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>560</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>6,775</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>5,241</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>2,001</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>7,144</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>2,276</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>9,421</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>2,980</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>59,336</t>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>31,956</t>
         </is>
       </c>
     </row>

--- a/excel/trick_202310.xlsx
+++ b/excel/trick_202310.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1340</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>95</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>5680</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1606</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1606</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>2070</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>540</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1550</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>1160</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>4950</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1580</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1760</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>3192</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>6125</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>700</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>410</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>410</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>4670</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5950</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>7275</t>
         </is>
       </c>
     </row>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>315</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>3435</t>
         </is>
       </c>
     </row>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>540</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>540</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>530</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>530</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>570</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>570</t>
         </is>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>205</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>2250</t>
         </is>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
     </row>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>914</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>914</t>
         </is>
       </c>
     </row>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2565</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2565</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2565</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2565</t>
         </is>
       </c>
     </row>
@@ -7628,7 +7628,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1670</t>
         </is>
       </c>
     </row>
@@ -7710,17 +7710,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,780</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>5,256</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>11,546</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2,686</t>
+          <t>6,632</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -7755,17 +7755,17 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3,370</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>6,460</t>
+          <t>8,420</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>4,661</t>
+          <t>7,226</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -7775,37 +7775,37 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>540</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,490</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>2,321</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>5,350</t>
+          <t>11,704</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>1,956</t>
+          <t>2,356</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>3,631</t>
+          <t>10,431</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>2,980</t>
+          <t>4,380</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>31,956</t>
+          <t>85,382</t>
         </is>
       </c>
     </row>
